--- a/varios/Planilla informativa completa.xlsx
+++ b/varios/Planilla informativa completa.xlsx
@@ -14,12 +14,12 @@
   <sheets>
     <sheet name="Hoja 1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="277" uniqueCount="175">
   <si>
     <t>Nombre y apellido</t>
   </si>
@@ -397,12 +397,6 @@
   </si>
   <si>
     <t>Carolina Szymañski</t>
-  </si>
-  <si>
-    <t>mamiferos</t>
-  </si>
-  <si>
-    <t xml:space="preserve">estaciones de muestreo para una temporada, con una duración de 30 días por cámara (un total de 17 estaciones o cámaras). </t>
   </si>
   <si>
     <r>
@@ -475,18 +469,6 @@
     <t>vegetación</t>
   </si>
   <si>
-    <t>Barzán</t>
-  </si>
-  <si>
-    <t>Calfayan</t>
-  </si>
-  <si>
-    <t>Cortez</t>
-  </si>
-  <si>
-    <t>Gómez</t>
-  </si>
-  <si>
     <t>Hillar</t>
   </si>
   <si>
@@ -496,9 +478,6 @@
     <t>no sabe</t>
   </si>
   <si>
-    <t>Florencia Abdenur Araos</t>
-  </si>
-  <si>
     <t>Adolfo Leandro Bareiro Guiñazu</t>
   </si>
   <si>
@@ -515,13 +494,115 @@
   </si>
   <si>
     <t>Analizo el efecto del avance de la frontera agropecuaria sobre la comunidad de aves. En total se realizaron 85 sitios de muestreo en bosques. Cada sitio muestreado conto de 3 repeticiones (3 puntos de conteo de radio fijo separados entre si por mas de 200 metros. Los tres puntos de conteo de radio fijo fueron realizados el mismo día).</t>
+  </si>
+  <si>
+    <t>Ensamble de micromamíferos</t>
+  </si>
+  <si>
+    <t>Guanacache</t>
+  </si>
+  <si>
+    <t>trampa de captura viva</t>
+  </si>
+  <si>
+    <t>Ensamble de mesomamíferos</t>
+  </si>
+  <si>
+    <t>Observación de indicios de presencia</t>
+  </si>
+  <si>
+    <t>En cada una de las 24 grillas se realizaron censos, mediante transectas de relevamiento, atravesando todas las estaciones de muestreo. Se censaron todos los indincios de presencia de mamíferos medianos. Este método fue repetido en cada estación del año en cada una de las grillas. Se censaron un total del 345.600 m2 .</t>
+  </si>
+  <si>
+    <t>Cortez, Reyes David</t>
+  </si>
+  <si>
+    <t>INTA-Chamical_La Rioja</t>
+  </si>
+  <si>
+    <t>SI (pero todavia no estan completamente tratados)</t>
+  </si>
+  <si>
+    <t>Fauna</t>
+  </si>
+  <si>
+    <t>Chamical_La Rioja</t>
+  </si>
+  <si>
+    <t>NO</t>
+  </si>
+  <si>
+    <t>Camaras Trampas</t>
+  </si>
+  <si>
+    <t>Carlos Gomez</t>
+  </si>
+  <si>
+    <t>UCASAL</t>
+  </si>
+  <si>
+    <t>Medir el Efecto de distintas practicas ganaderas en la ocupacion de mamiferos nativos del chaco semiárido.</t>
+  </si>
+  <si>
+    <t>Santa Victoria Este, Salta</t>
+  </si>
+  <si>
+    <t>minimo 16 por sitio</t>
+  </si>
+  <si>
+    <t>Camaras Trampa</t>
+  </si>
+  <si>
+    <t>Las camaras fueron dejadas minimo 16 días en cada sitio. No se repitieron los sitios.</t>
+  </si>
+  <si>
+    <t>Flavia Barzan</t>
+  </si>
+  <si>
+    <t>CICyTTP, Diamante</t>
+  </si>
+  <si>
+    <t>La Paz, Federal (Entre Ríos)</t>
+  </si>
+  <si>
+    <t>observación y audición</t>
+  </si>
+  <si>
+    <t>Laura Calfayan</t>
+  </si>
+  <si>
+    <t>IIIA-UNSAM</t>
+  </si>
+  <si>
+    <t>fauna mediana y grande</t>
+  </si>
+  <si>
+    <t>Parque Nacional El Palmar</t>
+  </si>
+  <si>
+    <t>30-80 dias</t>
+  </si>
+  <si>
+    <t>3-4</t>
+  </si>
+  <si>
+    <t>2017 a 2019</t>
+  </si>
+  <si>
+    <t>6 a 13</t>
+  </si>
+  <si>
+    <t>0-3</t>
+  </si>
+  <si>
+    <t>cámaras trampa</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -572,12 +653,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Arial Narrow"/>
@@ -588,6 +663,16 @@
       <color theme="1"/>
       <name val="Arial"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
     </font>
   </fonts>
   <fills count="5">
@@ -658,12 +743,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -711,15 +793,24 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -938,176 +1029,180 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:AF33"/>
+  <dimension ref="A1:AF34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A16" sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="41.4" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.44140625" style="3" customWidth="1"/>
-    <col min="2" max="2" width="15.33203125" style="3" customWidth="1"/>
-    <col min="3" max="3" width="17.5546875" style="3" customWidth="1"/>
-    <col min="4" max="6" width="15.33203125" style="3" customWidth="1"/>
-    <col min="7" max="7" width="39" style="3" customWidth="1"/>
-    <col min="8" max="15" width="15.33203125" style="3" customWidth="1"/>
-    <col min="16" max="16" width="30.44140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="38" style="3" customWidth="1"/>
-    <col min="18" max="16384" width="12.6640625" style="3"/>
+    <col min="1" max="1" width="6.44140625" style="25" customWidth="1"/>
+    <col min="2" max="2" width="15.33203125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="17.5546875" style="2" customWidth="1"/>
+    <col min="4" max="6" width="15.33203125" style="2" customWidth="1"/>
+    <col min="7" max="7" width="39" style="2" customWidth="1"/>
+    <col min="8" max="15" width="15.33203125" style="2" customWidth="1"/>
+    <col min="16" max="16" width="30.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="38" style="2" customWidth="1"/>
+    <col min="18" max="16384" width="12.6640625" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:32" ht="41.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
-      <c r="G1" s="4"/>
-      <c r="H1" s="4"/>
-      <c r="I1" s="4"/>
-      <c r="J1" s="4"/>
-      <c r="K1" s="4"/>
-      <c r="L1" s="4"/>
-      <c r="M1" s="4"/>
-      <c r="N1" s="4"/>
-      <c r="O1" s="4"/>
-      <c r="P1" s="4"/>
-      <c r="Q1" s="4"/>
-      <c r="R1" s="5"/>
-      <c r="S1" s="5"/>
-      <c r="T1" s="5"/>
-      <c r="U1" s="5"/>
-      <c r="V1" s="5"/>
-      <c r="W1" s="5"/>
-      <c r="X1" s="5"/>
-      <c r="Y1" s="5"/>
-      <c r="Z1" s="5"/>
-      <c r="AA1" s="5"/>
-      <c r="AB1" s="5"/>
-      <c r="AC1" s="5"/>
-      <c r="AD1" s="5"/>
-      <c r="AE1" s="5"/>
-      <c r="AF1" s="5"/>
+      <c r="B1" s="20" t="s">
+        <v>125</v>
+      </c>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="20"/>
+      <c r="G1" s="20"/>
+      <c r="H1" s="20"/>
+      <c r="I1" s="20"/>
+      <c r="J1" s="3"/>
+      <c r="K1" s="3"/>
+      <c r="L1" s="3"/>
+      <c r="M1" s="3"/>
+      <c r="N1" s="3"/>
+      <c r="O1" s="3"/>
+      <c r="P1" s="3"/>
+      <c r="Q1" s="3"/>
+      <c r="R1" s="4"/>
+      <c r="S1" s="4"/>
+      <c r="T1" s="4"/>
+      <c r="U1" s="4"/>
+      <c r="V1" s="4"/>
+      <c r="W1" s="4"/>
+      <c r="X1" s="4"/>
+      <c r="Y1" s="4"/>
+      <c r="Z1" s="4"/>
+      <c r="AA1" s="4"/>
+      <c r="AB1" s="4"/>
+      <c r="AC1" s="4"/>
+      <c r="AD1" s="4"/>
+      <c r="AE1" s="4"/>
+      <c r="AF1" s="4"/>
     </row>
     <row r="2" spans="1:32" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="6"/>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="6"/>
-      <c r="H2" s="6"/>
-      <c r="I2" s="6"/>
-      <c r="J2" s="6"/>
-      <c r="K2" s="6"/>
-      <c r="L2" s="6"/>
-      <c r="M2" s="6"/>
-      <c r="N2" s="6"/>
-      <c r="O2" s="6"/>
-      <c r="P2" s="6"/>
-      <c r="Q2" s="6"/>
+      <c r="B2" s="5"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5"/>
+      <c r="H2" s="5"/>
+      <c r="I2" s="5"/>
+      <c r="J2" s="5"/>
+      <c r="K2" s="5"/>
+      <c r="L2" s="5"/>
+      <c r="M2" s="5"/>
+      <c r="N2" s="5"/>
+      <c r="O2" s="5"/>
+      <c r="P2" s="5"/>
+      <c r="Q2" s="5"/>
     </row>
     <row r="3" spans="1:32" ht="41.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="C3" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="7" t="s">
+      <c r="D3" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="7" t="s">
+      <c r="E3" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="F3" s="7" t="s">
+      <c r="F3" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="G3" s="7" t="s">
+      <c r="G3" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="H3" s="7" t="s">
+      <c r="H3" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="I3" s="7" t="s">
+      <c r="I3" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="J3" s="7" t="s">
+      <c r="J3" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="K3" s="7" t="s">
+      <c r="K3" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="L3" s="7" t="s">
+      <c r="L3" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="M3" s="7" t="s">
+      <c r="M3" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="N3" s="7" t="s">
+      <c r="N3" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="O3" s="7" t="s">
+      <c r="O3" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="P3" s="7" t="s">
+      <c r="P3" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="Q3" s="7" t="s">
+      <c r="Q3" s="6" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:32" s="16" customFormat="1" ht="41.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="16">
+    <row r="4" spans="1:32" s="15" customFormat="1" ht="41.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="25">
         <v>1</v>
       </c>
-      <c r="B4" s="19" t="s">
-        <v>141</v>
-      </c>
-      <c r="C4" s="20"/>
-      <c r="D4" s="17"/>
-      <c r="E4" s="17"/>
-      <c r="F4" s="17"/>
-      <c r="G4" s="17"/>
-      <c r="H4" s="17"/>
-      <c r="I4" s="17"/>
-      <c r="J4" s="17"/>
-      <c r="K4" s="17"/>
-      <c r="L4" s="17"/>
-      <c r="M4" s="17"/>
-      <c r="N4" s="17"/>
-      <c r="O4" s="17"/>
-      <c r="P4" s="17"/>
-      <c r="Q4" s="17"/>
+      <c r="B4" s="24" t="s">
+        <v>123</v>
+      </c>
+      <c r="C4" s="24" t="s">
+        <v>62</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="E4" s="24"/>
+      <c r="F4" s="24"/>
+      <c r="G4" s="24"/>
+      <c r="H4" s="24"/>
+      <c r="I4" s="24"/>
+      <c r="J4" s="24"/>
+      <c r="K4" s="24"/>
+      <c r="L4" s="24"/>
+      <c r="M4" s="24"/>
+      <c r="N4" s="24"/>
+      <c r="O4" s="24"/>
+      <c r="P4" s="24"/>
+      <c r="Q4" s="24"/>
     </row>
     <row r="5" spans="1:32" ht="41.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="3">
+      <c r="A5" s="25">
         <v>2</v>
       </c>
-      <c r="B5" s="11" t="s">
-        <v>128</v>
-      </c>
-      <c r="C5" s="11"/>
-      <c r="D5" s="11"/>
-      <c r="E5" s="11"/>
-      <c r="F5" s="11"/>
-      <c r="G5" s="11"/>
-      <c r="H5" s="11"/>
-      <c r="I5" s="11"/>
-      <c r="J5" s="11"/>
-      <c r="K5" s="11"/>
-      <c r="L5" s="11"/>
-      <c r="M5" s="11"/>
-      <c r="N5" s="11"/>
-      <c r="O5" s="11"/>
-      <c r="P5" s="11"/>
-      <c r="Q5" s="11"/>
+      <c r="B5" s="10" t="s">
+        <v>126</v>
+      </c>
+      <c r="C5" s="10"/>
+      <c r="D5" s="10"/>
+      <c r="E5" s="10"/>
+      <c r="F5" s="10"/>
+      <c r="G5" s="10"/>
+      <c r="H5" s="10"/>
+      <c r="I5" s="10"/>
+      <c r="J5" s="10"/>
+      <c r="K5" s="10"/>
+      <c r="L5" s="10"/>
+      <c r="M5" s="10"/>
+      <c r="N5" s="10"/>
+      <c r="O5" s="10"/>
+      <c r="P5" s="10"/>
+      <c r="Q5" s="10"/>
     </row>
     <row r="6" spans="1:32" ht="41.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="3">
+      <c r="A6" s="25">
         <v>3</v>
       </c>
       <c r="B6" s="1" t="s">
@@ -1160,111 +1255,111 @@
       </c>
     </row>
     <row r="7" spans="1:32" ht="41.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="3">
+      <c r="A7" s="25">
         <v>4</v>
       </c>
-      <c r="B7" s="11" t="s">
+      <c r="B7" s="10" t="s">
         <v>92</v>
       </c>
-      <c r="C7" s="11" t="s">
+      <c r="C7" s="10" t="s">
         <v>93</v>
       </c>
-      <c r="D7" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="E7" s="11" t="s">
+      <c r="D7" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="E7" s="10" t="s">
         <v>94</v>
       </c>
-      <c r="F7" s="11">
+      <c r="F7" s="10">
         <v>36</v>
       </c>
-      <c r="G7" s="11" t="s">
+      <c r="G7" s="10" t="s">
         <v>95</v>
       </c>
-      <c r="H7" s="11">
+      <c r="H7" s="10">
         <v>11</v>
       </c>
-      <c r="I7" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="J7" s="11">
+      <c r="I7" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="J7" s="10">
         <v>2</v>
       </c>
-      <c r="K7" s="11" t="s">
+      <c r="K7" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="L7" s="11">
+      <c r="L7" s="10">
         <v>86</v>
       </c>
-      <c r="M7" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="N7" s="11">
+      <c r="M7" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="N7" s="10">
         <v>1</v>
       </c>
-      <c r="O7" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="P7" s="11" t="s">
+      <c r="O7" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="P7" s="10" t="s">
         <v>96</v>
       </c>
-      <c r="Q7" s="11" t="s">
+      <c r="Q7" s="10" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="8" spans="1:32" ht="41.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="3">
+      <c r="A8" s="25">
         <v>4</v>
       </c>
-      <c r="B8" s="11" t="s">
+      <c r="B8" s="10" t="s">
         <v>92</v>
       </c>
-      <c r="C8" s="11" t="s">
+      <c r="C8" s="10" t="s">
         <v>93</v>
       </c>
-      <c r="D8" s="11" t="s">
+      <c r="D8" s="10" t="s">
         <v>98</v>
       </c>
-      <c r="E8" s="11" t="s">
+      <c r="E8" s="10" t="s">
         <v>94</v>
       </c>
-      <c r="F8" s="11">
+      <c r="F8" s="10">
         <v>23</v>
       </c>
-      <c r="G8" s="11" t="s">
+      <c r="G8" s="10" t="s">
         <v>95</v>
       </c>
-      <c r="H8" s="11"/>
-      <c r="I8" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="J8" s="11">
+      <c r="H8" s="10"/>
+      <c r="I8" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="J8" s="10">
         <v>2</v>
       </c>
-      <c r="K8" s="11" t="s">
+      <c r="K8" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="L8" s="11">
+      <c r="L8" s="10">
         <v>62</v>
       </c>
-      <c r="M8" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="N8" s="11">
+      <c r="M8" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="N8" s="10">
         <v>1</v>
       </c>
-      <c r="O8" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="P8" s="11" t="s">
+      <c r="O8" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="P8" s="10" t="s">
         <v>96</v>
       </c>
-      <c r="Q8" s="11" t="s">
+      <c r="Q8" s="10" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="9" spans="1:32" ht="41.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="3">
+      <c r="A9" s="25">
         <v>5</v>
       </c>
       <c r="B9" s="1" t="s">
@@ -1314,61 +1409,61 @@
       </c>
       <c r="Q9" s="1"/>
     </row>
-    <row r="10" spans="1:32" s="22" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A10" s="3">
+    <row r="10" spans="1:32" s="19" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A10" s="25">
         <v>6</v>
       </c>
-      <c r="B10" s="21" t="s">
-        <v>142</v>
-      </c>
-      <c r="C10" s="21" t="s">
-        <v>143</v>
-      </c>
-      <c r="D10" s="21" t="s">
-        <v>30</v>
-      </c>
-      <c r="E10" s="21" t="s">
-        <v>144</v>
-      </c>
-      <c r="F10" s="21">
+      <c r="B10" s="18" t="s">
+        <v>135</v>
+      </c>
+      <c r="C10" s="18" t="s">
+        <v>136</v>
+      </c>
+      <c r="D10" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="E10" s="18" t="s">
+        <v>137</v>
+      </c>
+      <c r="F10" s="18">
         <v>176</v>
       </c>
-      <c r="G10" s="21">
+      <c r="G10" s="18">
         <v>85</v>
       </c>
-      <c r="H10" s="21" t="s">
-        <v>145</v>
-      </c>
-      <c r="I10" s="21" t="s">
+      <c r="H10" s="18" t="s">
+        <v>138</v>
+      </c>
+      <c r="I10" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="J10" s="21">
+      <c r="J10" s="18">
         <v>1</v>
       </c>
-      <c r="K10" s="21">
+      <c r="K10" s="18">
         <v>5</v>
       </c>
-      <c r="L10" s="21" t="s">
-        <v>146</v>
-      </c>
-      <c r="M10" s="21" t="s">
+      <c r="L10" s="18" t="s">
+        <v>139</v>
+      </c>
+      <c r="M10" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="N10" s="21">
+      <c r="N10" s="18">
         <v>3</v>
       </c>
-      <c r="O10" s="21" t="s">
-        <v>30</v>
-      </c>
-      <c r="P10" s="21" t="s">
+      <c r="O10" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="P10" s="18" t="s">
         <v>96</v>
       </c>
-      <c r="Q10" s="21" t="s">
-        <v>147</v>
+      <c r="Q10" s="18" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="11" spans="1:32" ht="41.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="3">
+      <c r="A11" s="25">
         <v>7</v>
       </c>
       <c r="B11" s="1" t="s">
@@ -1377,7 +1472,7 @@
       <c r="C11" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D11" s="10" t="s">
+      <c r="D11" s="9" t="s">
         <v>43</v>
       </c>
       <c r="E11" s="1" t="s">
@@ -1418,31 +1513,59 @@
       </c>
       <c r="Q11" s="1"/>
     </row>
-    <row r="12" spans="1:32" s="16" customFormat="1" ht="41.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="16">
+    <row r="12" spans="1:32" s="15" customFormat="1" ht="41.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="25">
         <v>8</v>
       </c>
-      <c r="B12" s="17" t="s">
-        <v>134</v>
-      </c>
-      <c r="C12" s="17"/>
-      <c r="D12" s="17"/>
-      <c r="E12" s="17"/>
-      <c r="F12" s="17"/>
-      <c r="G12" s="17"/>
-      <c r="H12" s="17"/>
-      <c r="I12" s="17"/>
-      <c r="J12" s="17"/>
-      <c r="K12" s="17"/>
-      <c r="L12" s="17"/>
-      <c r="M12" s="17"/>
-      <c r="N12" s="17"/>
-      <c r="O12" s="17"/>
-      <c r="P12" s="17"/>
-      <c r="Q12" s="17"/>
+      <c r="B12" s="18" t="s">
+        <v>161</v>
+      </c>
+      <c r="C12" s="18" t="s">
+        <v>162</v>
+      </c>
+      <c r="D12" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="E12" s="18" t="s">
+        <v>127</v>
+      </c>
+      <c r="F12" s="18">
+        <v>100</v>
+      </c>
+      <c r="G12" s="18" t="s">
+        <v>163</v>
+      </c>
+      <c r="H12" s="18">
+        <v>6</v>
+      </c>
+      <c r="I12" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="J12" s="18">
+        <v>1</v>
+      </c>
+      <c r="K12" s="18">
+        <v>1</v>
+      </c>
+      <c r="L12" s="18">
+        <v>90</v>
+      </c>
+      <c r="M12" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="N12" s="18">
+        <v>2</v>
+      </c>
+      <c r="O12" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="P12" s="18" t="s">
+        <v>164</v>
+      </c>
+      <c r="Q12" s="18"/>
     </row>
     <row r="13" spans="1:32" ht="41.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="3">
+      <c r="A13" s="25">
         <v>9</v>
       </c>
       <c r="B13" s="1" t="s">
@@ -1454,7 +1577,7 @@
       <c r="D13" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="E13" s="12" t="s">
+      <c r="E13" s="11" t="s">
         <v>64</v>
       </c>
       <c r="F13" s="1">
@@ -1463,7 +1586,7 @@
       <c r="G13" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="H13" s="13" t="s">
+      <c r="H13" s="12" t="s">
         <v>66</v>
       </c>
       <c r="I13" s="1" t="s">
@@ -1481,7 +1604,7 @@
       <c r="M13" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="N13" s="13" t="s">
+      <c r="N13" s="12" t="s">
         <v>68</v>
       </c>
       <c r="O13" s="1" t="s">
@@ -1495,7 +1618,7 @@
       </c>
     </row>
     <row r="14" spans="1:32" ht="41.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="3">
+      <c r="A14" s="25">
         <v>9</v>
       </c>
       <c r="B14" s="1" t="s">
@@ -1507,7 +1630,7 @@
       <c r="D14" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="E14" s="12" t="s">
+      <c r="E14" s="11" t="s">
         <v>64</v>
       </c>
       <c r="F14" s="1">
@@ -1516,7 +1639,7 @@
       <c r="G14" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="H14" s="13" t="s">
+      <c r="H14" s="12" t="s">
         <v>71</v>
       </c>
       <c r="I14" s="1" t="s">
@@ -1548,7 +1671,7 @@
       </c>
     </row>
     <row r="15" spans="1:32" ht="41.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="3">
+      <c r="A15" s="25">
         <v>10</v>
       </c>
       <c r="B15" s="1" t="s">
@@ -1581,7 +1704,7 @@
       <c r="K15" s="1">
         <v>2</v>
       </c>
-      <c r="L15" s="9">
+      <c r="L15" s="8">
         <v>3</v>
       </c>
       <c r="M15" s="1" t="s">
@@ -1598,54 +1721,108 @@
       </c>
       <c r="Q15" s="1"/>
     </row>
-    <row r="16" spans="1:32" s="16" customFormat="1" ht="41.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="16">
+    <row r="16" spans="1:32" s="15" customFormat="1" ht="41.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="25">
         <v>11</v>
       </c>
-      <c r="B16" s="20" t="s">
-        <v>135</v>
-      </c>
-      <c r="C16" s="17"/>
-      <c r="D16" s="17"/>
-      <c r="E16" s="17"/>
-      <c r="F16" s="17"/>
-      <c r="G16" s="17"/>
-      <c r="H16" s="17"/>
-      <c r="I16" s="17"/>
-      <c r="J16" s="17"/>
-      <c r="K16" s="17"/>
-      <c r="L16" s="18"/>
-      <c r="M16" s="17"/>
-      <c r="N16" s="17"/>
-      <c r="O16" s="17"/>
-      <c r="P16" s="17"/>
-      <c r="Q16" s="17"/>
-    </row>
-    <row r="17" spans="1:17" s="16" customFormat="1" ht="41.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="16">
+      <c r="B16" s="26" t="s">
+        <v>165</v>
+      </c>
+      <c r="C16" s="26" t="s">
+        <v>166</v>
+      </c>
+      <c r="D16" s="26" t="s">
+        <v>30</v>
+      </c>
+      <c r="E16" s="26" t="s">
+        <v>167</v>
+      </c>
+      <c r="F16" s="26">
+        <v>7</v>
+      </c>
+      <c r="G16" s="27" t="s">
+        <v>168</v>
+      </c>
+      <c r="H16" s="26" t="s">
+        <v>169</v>
+      </c>
+      <c r="I16" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="J16" s="26" t="s">
+        <v>170</v>
+      </c>
+      <c r="K16" s="26" t="s">
+        <v>171</v>
+      </c>
+      <c r="L16" s="26" t="s">
+        <v>172</v>
+      </c>
+      <c r="M16" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="N16" s="26" t="s">
+        <v>173</v>
+      </c>
+      <c r="O16" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="P16" s="26" t="s">
+        <v>174</v>
+      </c>
+      <c r="Q16" s="26"/>
+    </row>
+    <row r="17" spans="1:19" s="15" customFormat="1" ht="41.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="25">
         <v>12</v>
       </c>
-      <c r="B17" s="20" t="s">
-        <v>136</v>
-      </c>
-      <c r="C17" s="17"/>
-      <c r="D17" s="17"/>
-      <c r="E17" s="17"/>
-      <c r="F17" s="17"/>
-      <c r="G17" s="17"/>
-      <c r="H17" s="17"/>
-      <c r="I17" s="17"/>
-      <c r="J17" s="17"/>
-      <c r="K17" s="17"/>
-      <c r="L17" s="18"/>
-      <c r="M17" s="17"/>
-      <c r="N17" s="17"/>
-      <c r="O17" s="17"/>
-      <c r="P17" s="17"/>
-      <c r="Q17" s="17"/>
-    </row>
-    <row r="18" spans="1:17" ht="41.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="3">
+      <c r="B17" s="24" t="s">
+        <v>147</v>
+      </c>
+      <c r="C17" s="24" t="s">
+        <v>148</v>
+      </c>
+      <c r="D17" s="24" t="s">
+        <v>149</v>
+      </c>
+      <c r="E17" s="24" t="s">
+        <v>150</v>
+      </c>
+      <c r="F17" s="24">
+        <v>12</v>
+      </c>
+      <c r="G17" s="24" t="s">
+        <v>151</v>
+      </c>
+      <c r="H17" s="24">
+        <v>45</v>
+      </c>
+      <c r="I17" s="24" t="s">
+        <v>152</v>
+      </c>
+      <c r="J17" s="24">
+        <v>8</v>
+      </c>
+      <c r="K17" s="24">
+        <v>1</v>
+      </c>
+      <c r="L17" s="24">
+        <v>10</v>
+      </c>
+      <c r="M17" s="24" t="s">
+        <v>152</v>
+      </c>
+      <c r="N17" s="24">
+        <v>2</v>
+      </c>
+      <c r="O17" s="24"/>
+      <c r="P17" s="24" t="s">
+        <v>153</v>
+      </c>
+      <c r="Q17" s="24"/>
+    </row>
+    <row r="18" spans="1:19" ht="41.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="25">
         <v>13</v>
       </c>
       <c r="B18" s="1" t="s">
@@ -1691,8 +1868,8 @@
         <v>91</v>
       </c>
     </row>
-    <row r="19" spans="1:17" ht="41.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="3">
+    <row r="19" spans="1:19" ht="41.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="25">
         <v>14</v>
       </c>
       <c r="B19" s="1" t="s">
@@ -1740,81 +1917,109 @@
       </c>
       <c r="Q19" s="1"/>
     </row>
-    <row r="20" spans="1:17" s="16" customFormat="1" ht="41.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="16">
+    <row r="20" spans="1:19" s="15" customFormat="1" ht="41.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="25">
         <v>15</v>
       </c>
-      <c r="B20" s="20" t="s">
-        <v>137</v>
-      </c>
-      <c r="C20" s="17"/>
-      <c r="D20" s="17" t="s">
-        <v>30</v>
-      </c>
-      <c r="E20" s="17"/>
-      <c r="F20" s="17"/>
-      <c r="G20" s="17"/>
-      <c r="H20" s="17"/>
-      <c r="I20" s="17"/>
-      <c r="J20" s="17"/>
-      <c r="K20" s="17"/>
-      <c r="L20" s="17"/>
-      <c r="M20" s="17"/>
-      <c r="N20" s="17"/>
-      <c r="O20" s="17"/>
-      <c r="P20" s="17"/>
-      <c r="Q20" s="17"/>
-    </row>
-    <row r="21" spans="1:17" s="16" customFormat="1" ht="41.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="16">
+      <c r="B20" s="24" t="s">
+        <v>154</v>
+      </c>
+      <c r="C20" s="24" t="s">
+        <v>155</v>
+      </c>
+      <c r="D20" s="24" t="s">
+        <v>111</v>
+      </c>
+      <c r="E20" s="24" t="s">
+        <v>156</v>
+      </c>
+      <c r="F20" s="24">
+        <v>10</v>
+      </c>
+      <c r="G20" s="24" t="s">
+        <v>157</v>
+      </c>
+      <c r="H20" s="24" t="s">
+        <v>158</v>
+      </c>
+      <c r="I20" s="24" t="s">
+        <v>21</v>
+      </c>
+      <c r="J20" s="24">
+        <v>1</v>
+      </c>
+      <c r="K20" s="24">
+        <v>1</v>
+      </c>
+      <c r="L20" s="24">
+        <v>4</v>
+      </c>
+      <c r="M20" s="24" t="s">
+        <v>21</v>
+      </c>
+      <c r="N20" s="24">
+        <v>0</v>
+      </c>
+      <c r="O20" s="24"/>
+      <c r="P20" s="24" t="s">
+        <v>159</v>
+      </c>
+      <c r="Q20" s="24" t="s">
+        <v>160</v>
+      </c>
+      <c r="R20" s="19"/>
+      <c r="S20" s="19"/>
+    </row>
+    <row r="21" spans="1:19" s="25" customFormat="1" ht="41.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="25">
         <v>16</v>
       </c>
-      <c r="B21" s="20" t="s">
-        <v>138</v>
-      </c>
-      <c r="C21" s="17"/>
-      <c r="D21" s="17" t="s">
-        <v>140</v>
-      </c>
-      <c r="E21" s="17"/>
-      <c r="F21" s="17"/>
-      <c r="G21" s="17"/>
-      <c r="H21" s="17"/>
-      <c r="I21" s="17"/>
-      <c r="J21" s="17"/>
-      <c r="K21" s="17"/>
-      <c r="L21" s="17"/>
-      <c r="M21" s="17"/>
-      <c r="N21" s="17"/>
-      <c r="O21" s="17"/>
-      <c r="P21" s="17"/>
-      <c r="Q21" s="17"/>
-    </row>
-    <row r="22" spans="1:17" s="16" customFormat="1" ht="41.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="16">
+      <c r="B21" s="28" t="s">
+        <v>132</v>
+      </c>
+      <c r="C21" s="13"/>
+      <c r="D21" s="9" t="s">
+        <v>134</v>
+      </c>
+      <c r="E21" s="13"/>
+      <c r="F21" s="13"/>
+      <c r="G21" s="13"/>
+      <c r="H21" s="13"/>
+      <c r="I21" s="13"/>
+      <c r="J21" s="13"/>
+      <c r="K21" s="13"/>
+      <c r="L21" s="13"/>
+      <c r="M21" s="13"/>
+      <c r="N21" s="13"/>
+      <c r="O21" s="13"/>
+      <c r="P21" s="13"/>
+      <c r="Q21" s="13"/>
+    </row>
+    <row r="22" spans="1:19" s="15" customFormat="1" ht="41.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="25">
         <v>17</v>
       </c>
-      <c r="B22" s="19" t="s">
-        <v>139</v>
-      </c>
-      <c r="C22" s="17"/>
-      <c r="D22" s="17"/>
-      <c r="E22" s="17"/>
-      <c r="F22" s="17"/>
-      <c r="G22" s="17"/>
-      <c r="H22" s="17"/>
-      <c r="I22" s="17"/>
-      <c r="J22" s="17"/>
-      <c r="K22" s="17"/>
-      <c r="L22" s="17"/>
-      <c r="M22" s="17"/>
-      <c r="N22" s="17"/>
-      <c r="O22" s="17"/>
-      <c r="P22" s="17"/>
-      <c r="Q22" s="17"/>
-    </row>
-    <row r="23" spans="1:17" ht="41.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="3">
+      <c r="B22" s="17" t="s">
+        <v>133</v>
+      </c>
+      <c r="C22" s="16"/>
+      <c r="D22" s="16"/>
+      <c r="E22" s="16"/>
+      <c r="F22" s="16"/>
+      <c r="G22" s="16"/>
+      <c r="H22" s="16"/>
+      <c r="I22" s="16"/>
+      <c r="J22" s="16"/>
+      <c r="K22" s="16"/>
+      <c r="L22" s="16"/>
+      <c r="M22" s="16"/>
+      <c r="N22" s="16"/>
+      <c r="O22" s="16"/>
+      <c r="P22" s="16"/>
+      <c r="Q22" s="16"/>
+    </row>
+    <row r="23" spans="1:19" ht="41.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="25">
         <v>18</v>
       </c>
       <c r="B23" s="1" t="s">
@@ -1823,7 +2028,7 @@
       <c r="C23" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="D23" s="10" t="s">
+      <c r="D23" s="9" t="s">
         <v>33</v>
       </c>
       <c r="E23" s="1"/>
@@ -1840,8 +2045,8 @@
       <c r="P23" s="1"/>
       <c r="Q23" s="1"/>
     </row>
-    <row r="24" spans="1:17" ht="41.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="3">
+    <row r="24" spans="1:19" ht="41.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="25">
         <v>19</v>
       </c>
       <c r="B24" s="1" t="s">
@@ -1893,8 +2098,8 @@
         <v>108</v>
       </c>
     </row>
-    <row r="25" spans="1:17" ht="41.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="3">
+    <row r="25" spans="1:19" ht="41.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="25">
         <v>20</v>
       </c>
       <c r="B25" s="1" t="s">
@@ -1944,33 +2149,33 @@
       </c>
       <c r="Q25" s="1"/>
     </row>
-    <row r="26" spans="1:17" ht="41.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="3">
+    <row r="26" spans="1:19" ht="41.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="25">
         <v>21</v>
       </c>
-      <c r="B26" s="14" t="s">
+      <c r="B26" s="13" t="s">
         <v>122</v>
       </c>
-      <c r="C26" s="11"/>
-      <c r="D26" s="15" t="s">
+      <c r="C26" s="10"/>
+      <c r="D26" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="E26" s="11"/>
-      <c r="F26" s="11"/>
-      <c r="G26" s="11"/>
-      <c r="H26" s="11"/>
-      <c r="I26" s="11"/>
-      <c r="J26" s="11"/>
-      <c r="K26" s="11"/>
-      <c r="L26" s="11"/>
-      <c r="M26" s="11"/>
-      <c r="N26" s="11"/>
-      <c r="O26" s="11"/>
-      <c r="P26" s="11"/>
-      <c r="Q26" s="11"/>
-    </row>
-    <row r="27" spans="1:17" ht="41.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="3">
+      <c r="E26" s="10"/>
+      <c r="F26" s="10"/>
+      <c r="G26" s="10"/>
+      <c r="H26" s="10"/>
+      <c r="I26" s="10"/>
+      <c r="J26" s="10"/>
+      <c r="K26" s="10"/>
+      <c r="L26" s="10"/>
+      <c r="M26" s="10"/>
+      <c r="N26" s="10"/>
+      <c r="O26" s="10"/>
+      <c r="P26" s="10"/>
+      <c r="Q26" s="10"/>
+    </row>
+    <row r="27" spans="1:19" ht="41.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="25">
         <v>22</v>
       </c>
       <c r="B27" s="1" t="s">
@@ -1997,13 +2202,13 @@
       <c r="I27" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="J27" s="8" t="s">
+      <c r="J27" s="7" t="s">
         <v>25</v>
       </c>
       <c r="K27" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="L27" s="8" t="s">
+      <c r="L27" s="7" t="s">
         <v>22</v>
       </c>
       <c r="M27" s="1" t="s">
@@ -2022,251 +2227,318 @@
         <v>27</v>
       </c>
     </row>
-    <row r="28" spans="1:17" ht="41.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="3">
+    <row r="28" spans="1:19" ht="41.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="25">
         <v>23</v>
       </c>
-      <c r="B28" s="2" t="s">
+      <c r="B28" s="21" t="s">
         <v>124</v>
       </c>
-      <c r="C28" s="1" t="s">
+      <c r="C28" s="22" t="s">
         <v>62</v>
       </c>
-      <c r="D28" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="E28" s="14" t="s">
-        <v>125</v>
-      </c>
-      <c r="F28" s="14" t="s">
-        <v>89</v>
-      </c>
-      <c r="G28" s="11"/>
-      <c r="H28" s="11"/>
-      <c r="I28" s="11"/>
-      <c r="J28" s="11"/>
-      <c r="K28" s="11"/>
-      <c r="L28" s="11"/>
-      <c r="M28" s="11"/>
-      <c r="N28" s="11"/>
-      <c r="O28" s="11"/>
-      <c r="P28" s="11"/>
-      <c r="Q28" s="11" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="29" spans="1:17" ht="41.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="3">
+      <c r="D28" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="E28" s="21" t="s">
+        <v>141</v>
+      </c>
+      <c r="F28" s="21">
+        <v>5</v>
+      </c>
+      <c r="G28" s="21" t="s">
+        <v>142</v>
+      </c>
+      <c r="H28" s="21">
+        <v>5</v>
+      </c>
+      <c r="I28" s="21" t="s">
+        <v>67</v>
+      </c>
+      <c r="J28" s="21">
+        <v>4</v>
+      </c>
+      <c r="K28" s="21">
+        <v>2</v>
+      </c>
+      <c r="L28" s="21">
+        <v>3</v>
+      </c>
+      <c r="M28" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="N28" s="21">
+        <v>8</v>
+      </c>
+      <c r="O28" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="P28" s="21" t="s">
+        <v>143</v>
+      </c>
+      <c r="Q28" s="23"/>
+    </row>
+    <row r="29" spans="1:19" ht="41.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="25">
+        <v>23</v>
+      </c>
+      <c r="B29" s="21" t="s">
+        <v>124</v>
+      </c>
+      <c r="C29" s="22" t="s">
+        <v>62</v>
+      </c>
+      <c r="D29" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="E29" s="21" t="s">
+        <v>144</v>
+      </c>
+      <c r="F29" s="22">
+        <v>5</v>
+      </c>
+      <c r="G29" s="21" t="s">
+        <v>142</v>
+      </c>
+      <c r="H29"/>
+      <c r="I29"/>
+      <c r="J29" s="22">
+        <v>4</v>
+      </c>
+      <c r="K29" s="22">
+        <v>2</v>
+      </c>
+      <c r="L29" s="22">
+        <v>3</v>
+      </c>
+      <c r="M29" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="N29" s="22">
+        <v>8</v>
+      </c>
+      <c r="O29" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="P29" s="22" t="s">
+        <v>145</v>
+      </c>
+      <c r="Q29" s="22" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="30" spans="1:19" ht="41.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="25">
         <v>24</v>
       </c>
-      <c r="B29" s="1" t="s">
+      <c r="B30" s="1" t="s">
         <v>115</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="D29" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="E29" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="F29" s="1">
-        <v>60</v>
-      </c>
-      <c r="G29" s="1">
-        <v>6</v>
-      </c>
-      <c r="H29" s="1">
-        <v>18</v>
-      </c>
-      <c r="I29" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="J29" s="1">
-        <v>1</v>
-      </c>
-      <c r="K29" s="1">
-        <v>3</v>
-      </c>
-      <c r="L29" s="1">
-        <v>6</v>
-      </c>
-      <c r="M29" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="N29" s="1">
-        <v>3</v>
-      </c>
-      <c r="O29" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="P29" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="Q29" s="1" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="30" spans="1:17" ht="41.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="3">
-        <v>25</v>
-      </c>
-      <c r="B30" s="11" t="s">
-        <v>130</v>
       </c>
       <c r="C30" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="D30" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="E30" s="11" t="s">
+      <c r="D30" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="F30" s="1">
+        <v>60</v>
+      </c>
+      <c r="G30" s="1">
+        <v>6</v>
+      </c>
+      <c r="H30" s="1">
+        <v>18</v>
+      </c>
+      <c r="I30" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="J30" s="1">
+        <v>1</v>
+      </c>
+      <c r="K30" s="1">
+        <v>3</v>
+      </c>
+      <c r="L30" s="1">
+        <v>6</v>
+      </c>
+      <c r="M30" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="N30" s="1">
+        <v>3</v>
+      </c>
+      <c r="O30" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="P30" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="Q30" s="1" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="31" spans="1:19" ht="41.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="25">
+        <v>25</v>
+      </c>
+      <c r="B31" s="10" t="s">
+        <v>128</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="D31" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="E31" s="10" t="s">
+        <v>127</v>
+      </c>
+      <c r="F31" s="10"/>
+      <c r="G31" s="10"/>
+      <c r="H31" s="10"/>
+      <c r="I31" s="10"/>
+      <c r="J31" s="10"/>
+      <c r="K31" s="10"/>
+      <c r="L31" s="10"/>
+      <c r="M31" s="10"/>
+      <c r="N31" s="10"/>
+      <c r="O31" s="10"/>
+      <c r="P31" s="10"/>
+      <c r="Q31" s="10"/>
+    </row>
+    <row r="32" spans="1:19" ht="41.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="25">
+        <v>26</v>
+      </c>
+      <c r="B32" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="C32" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="D32" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="E32" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="F32" s="10">
+        <v>5</v>
+      </c>
+      <c r="G32" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="H32" s="10">
+        <v>365</v>
+      </c>
+      <c r="I32" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="J32" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="K32" s="10">
+        <v>3</v>
+      </c>
+      <c r="L32" s="10">
+        <v>1</v>
+      </c>
+      <c r="M32" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="N32" s="10">
+        <v>30</v>
+      </c>
+      <c r="O32" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="P32" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q32" s="10" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17" ht="41.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="25">
+        <v>27</v>
+      </c>
+      <c r="B33" s="10" t="s">
         <v>129</v>
       </c>
-      <c r="F30" s="11"/>
-      <c r="G30" s="11"/>
-      <c r="H30" s="11"/>
-      <c r="I30" s="11"/>
-      <c r="J30" s="11"/>
-      <c r="K30" s="11"/>
-      <c r="L30" s="11"/>
-      <c r="M30" s="11"/>
-      <c r="N30" s="11"/>
-      <c r="O30" s="11"/>
-      <c r="P30" s="11"/>
-      <c r="Q30" s="11"/>
-    </row>
-    <row r="31" spans="1:17" ht="41.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="3">
-        <v>26</v>
-      </c>
-      <c r="B31" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="C31" s="11" t="s">
-        <v>49</v>
-      </c>
-      <c r="D31" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="E31" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="F31" s="11">
-        <v>5</v>
-      </c>
-      <c r="G31" s="11" t="s">
-        <v>51</v>
-      </c>
-      <c r="H31" s="11">
-        <v>365</v>
-      </c>
-      <c r="I31" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="J31" s="11" t="s">
-        <v>52</v>
-      </c>
-      <c r="K31" s="11">
-        <v>3</v>
-      </c>
-      <c r="L31" s="11">
+      <c r="C33" s="10" t="s">
+        <v>130</v>
+      </c>
+      <c r="D33" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="E33" s="10" t="s">
+        <v>131</v>
+      </c>
+      <c r="F33" s="10"/>
+      <c r="G33" s="10"/>
+      <c r="H33" s="10"/>
+      <c r="I33" s="10"/>
+      <c r="J33" s="10"/>
+      <c r="K33" s="10"/>
+      <c r="L33" s="10"/>
+      <c r="M33" s="10"/>
+      <c r="N33" s="10"/>
+      <c r="O33" s="10"/>
+      <c r="P33" s="10"/>
+      <c r="Q33" s="10"/>
+    </row>
+    <row r="34" spans="1:17" ht="41.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="25">
+        <v>28</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="F34" s="1">
         <v>1</v>
       </c>
-      <c r="M31" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="N31" s="11">
-        <v>30</v>
-      </c>
-      <c r="O31" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="P31" s="11" t="s">
-        <v>53</v>
-      </c>
-      <c r="Q31" s="11" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="32" spans="1:17" ht="41.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="3">
-        <v>27</v>
-      </c>
-      <c r="B32" s="11" t="s">
-        <v>131</v>
-      </c>
-      <c r="C32" s="11" t="s">
-        <v>132</v>
-      </c>
-      <c r="D32" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="E32" s="11" t="s">
-        <v>133</v>
-      </c>
-      <c r="F32" s="11"/>
-      <c r="G32" s="11"/>
-      <c r="H32" s="11"/>
-      <c r="I32" s="11"/>
-      <c r="J32" s="11"/>
-      <c r="K32" s="11"/>
-      <c r="L32" s="11"/>
-      <c r="M32" s="11"/>
-      <c r="N32" s="11"/>
-      <c r="O32" s="11"/>
-      <c r="P32" s="11"/>
-      <c r="Q32" s="11"/>
-    </row>
-    <row r="33" spans="1:17" ht="41.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="3">
-        <v>28</v>
-      </c>
-      <c r="B33" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="C33" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="D33" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="E33" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="F33" s="1">
-        <v>1</v>
-      </c>
-      <c r="G33" s="1">
+      <c r="G34" s="1">
         <v>2</v>
       </c>
-      <c r="H33" s="1">
+      <c r="H34" s="1">
         <v>110</v>
       </c>
-      <c r="I33" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="J33" s="1" t="s">
+      <c r="I34" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="J34" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="K33" s="1"/>
-      <c r="L33" s="1">
+      <c r="K34" s="1"/>
+      <c r="L34" s="1">
         <v>4</v>
       </c>
-      <c r="M33" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="N33" s="1">
+      <c r="M34" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="N34" s="1">
         <v>84</v>
       </c>
-      <c r="O33" s="1">
+      <c r="O34" s="1">
         <v>35</v>
       </c>
-      <c r="P33" s="1" t="s">
+      <c r="P34" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="Q33" s="1" t="s">
+      <c r="Q34" s="1" t="s">
         <v>60</v>
       </c>
     </row>
@@ -2274,6 +2546,9 @@
   <sortState ref="B4:R25">
     <sortCondition ref="B4:B25"/>
   </sortState>
+  <mergeCells count="1">
+    <mergeCell ref="B1:I1"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
